--- a/files/State和Switch创建/State和Switch创建表.xlsx
+++ b/files/State和Switch创建/State和Switch创建表.xlsx
@@ -51,15 +51,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,6 +80,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
@@ -93,12 +99,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF133C9A"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -160,13 +160,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,533 +499,529 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="5" t="str">
         <v>Group名称</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="5" t="str">
         <v>Group描述</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="5" t="str">
         <v>值</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="5" t="str">
         <v>值描述</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="5" t="str">
         <v>是否创建Bank</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Combat_Boss_State</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Boss战_状态</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>End</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>结束战斗</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="str">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="str">
         <v>Last</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>终局</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="str">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="str">
         <v>Stage1</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>阶段1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="str">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="str">
         <v>Stage2</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>阶段2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="str">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="str">
         <v>Stage3</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>阶段3</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="str">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="str">
         <v>Start</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>开场</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="str">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="str">
         <v>Trans</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>转场</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="2" t="str">
         <v>Combat_Mon_Type</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>战斗_怪物类型</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <v>Boss</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <v>Boss</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="str">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="str">
         <v>Elite</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <v>精英怪</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="str">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="str">
         <v>Medium</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <v>中型怪</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="str">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="str">
         <v>Small</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <v>小型怪</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="1" t="str">
         <v>Gameplay_State</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="1" t="str">
         <v>游戏内_状态</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="1" t="str">
         <v>Combat</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="1" t="str">
         <v>战斗</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="str">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="str">
         <v>Explore</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="1" t="str">
         <v>探索</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="2" t="str">
         <v>Process_State</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="2" t="str">
         <v>流程_状态</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="2" t="str">
         <v>Story</v>
       </c>
-      <c r="D15" s="1" t="str">
+      <c r="D15" s="2" t="str">
         <v>剧情（过场动画）</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="str">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="str">
         <v>Loading</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D16" s="2" t="str">
         <v>加载</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="str" xml:space="preserve">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="str" xml:space="preserve">
         <v> </v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="str">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="str">
         <v>Enter_Map</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="D17" s="2" t="str">
         <v>进入地图</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="str">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="str">
         <v>Tutorial</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="D18" s="2" t="str">
         <v>新手关</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="str">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="str">
         <v>System</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="D19" s="2" t="str">
         <v>系统</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="str">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="str">
         <v>Login</v>
       </c>
-      <c r="D20" s="1" t="str">
+      <c r="D20" s="2" t="str">
         <v>登录</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="str">
+      <c r="A21" s="1" t="str">
         <v>Map_Type</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="1" t="str">
         <v>地图_类型</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="1" t="str">
         <v>A01</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <v>地图1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1" t="str">
+        <v>上城区</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="str">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="str">
         <v>A02</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <v>地图2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>Story_Type</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>剧情_类型</v>
-      </c>
+      <c r="D22" s="1" t="str">
+        <v>灰姑娘boss战</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="23">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="str">
-        <v>Story_01</v>
+        <v>A03</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>约见警长</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>深渊副本</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row customHeight="true" ht="19" r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="str">
+        <v>A04</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>思维空间</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="str">
+        <v>Story_Type</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <v>剧情_类型</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <v>Story_01</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <v>约见警长</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="str">
         <v>Story_02</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D26" s="2" t="str">
         <v>狼人突袭</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="str">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="str">
         <v>Story_03</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="D27" s="2" t="str">
         <v>解决</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="str">
-        <v>Story_04</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <v>探索</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="str">
-        <v>Battle_Type</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <v>战斗_状态</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <v>Pre</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <v>入战前</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="2" t="str">
+        <v>Story_04</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <v>探索</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>Battle_Type</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>战斗_状态</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Pre</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>入战前</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4" t="str">
         <v>Enter</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D30" s="1" t="str">
         <v>战斗中</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="str">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="str">
         <v>Exit</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D31" s="1" t="str">
         <v>出战前</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="str">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="str">
         <v>System_Type</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B32" s="2" t="str">
         <v>系统_状态</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C32" s="2" t="str">
         <v>Show</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D32" s="2" t="str">
         <v>角色展示界面</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="str">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
         <v>Weather_Type</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B33" s="1" t="str">
         <v>天气_状态</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C33" s="1" t="str">
         <v>Sunny</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D33" s="1" t="str">
         <v>晴天</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="str">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="str">
         <v>Rain</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D34" s="1" t="str">
         <v>雨天</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="str">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="str">
         <v>AfterRain</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D35" s="1" t="str">
         <v>雨后</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="str">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="str">
         <v>Fog</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D36" s="1" t="str">
         <v>雾天</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row customHeight="true" ht="19" r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="str">
-        <v>None</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <v>无</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="str">
-        <v>Time_Type</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>时间_状态</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <v>Dawn</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <v>清晨</v>
-      </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37">
+    <row customHeight="true" ht="19" r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="str">
+        <v>None</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>无</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="str">
+        <v>Time_Type</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <v>时间_状态</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <v>Dawn</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <v>清晨</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="str">
         <v>Noon</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D39" s="2" t="str">
         <v>正午</v>
       </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="str">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="str">
         <v>Dusk</v>
       </c>
-      <c r="D38" s="1" t="str">
+      <c r="D40" s="2" t="str">
         <v>黄昏/傍晚</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="str">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="str">
         <v>Evening</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D41" s="2" t="str">
         <v>晚霞</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="str">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="str">
         <v>Night</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D42" s="2" t="str">
         <v>夜晚</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="str">
-        <v>MidNight</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <v>深夜</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="str">
-        <v>Region_Type</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <v>区域_类型</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <v>Area1</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <v>区域1</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -1033,88 +1029,88 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="str">
+        <v>MidNight</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <v>深夜</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>Region_Type</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <v>区域_类型</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>Area1</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v>区域1</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="str">
         <v>Area2</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D45" s="1" t="str">
         <v>区域2</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="str">
-        <v>Area3</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <v>区域3</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <v>Plot_Type</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>故事_类型</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>PG01</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <v>剧情通用01</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
+      <c r="E45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="str">
-        <v>PG02</v>
+        <v>Area3</v>
       </c>
       <c r="D46" s="1" t="str">
-        <v>剧情通用02</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="str">
-        <v>PG03</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <v>剧情通用03</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="str">
-        <v>PD01</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <v>特定剧情01</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
+        <v>区域3</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row customHeight="true" ht="19" r="47">
+      <c r="A47" s="2" t="str">
+        <v>Door_Type</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <v>环境_类型</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <v>Indoor</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <v>室内</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row customHeight="true" ht="19" r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="str">
+        <v>Outdoor</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <v>室外</v>
+      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="str">
+        <v>Plot_Type</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <v>故事_类型</v>
+      </c>
       <c r="C49" s="1" t="str">
-        <v>PD02</v>
+        <v>PG01</v>
       </c>
       <c r="D49" s="1" t="str">
-        <v>特定剧情02</v>
+        <v>剧情通用01</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1124,12 +1120,64 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="str">
+        <v>PG02</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <v>剧情通用02</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="str">
+        <v>PG03</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <v>剧情通用03</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="str">
+        <v>PD01</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <v>特定剧情01</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="str">
+        <v>PD02</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <v>特定剧情02</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="str">
         <v>PD03</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D54" s="1" t="str">
         <v>特定剧情03</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1141,22 +1189,24 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
@@ -1180,19 +1230,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="5" t="str">
         <v>Group名称</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="5" t="str">
         <v>Group描述</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="5" t="str">
         <v>值</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="5" t="str">
         <v>值描述</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="5" t="str">
         <v>是否创建Bank</v>
       </c>
     </row>

--- a/files/State和Switch创建/State和Switch创建表.xlsx
+++ b/files/State和Switch创建/State和Switch创建表.xlsx
@@ -51,15 +51,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,12 +80,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
@@ -99,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF133C9A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -160,14 +160,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,685 +499,685 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="3" t="str">
         <v>Group名称</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>Group描述</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="3" t="str">
         <v>值</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="3" t="str">
         <v>值描述</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="3" t="str">
         <v>是否创建Bank</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>Combat_Boss_State</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>Boss战_状态</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>End</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>结束战斗</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="str">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="str">
         <v>Last</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>终局</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="str">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="str">
         <v>Stage1</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>阶段1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="str">
         <v>Stage2</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>阶段2</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="str">
         <v>Stage3</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>阶段3</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="str">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="str">
         <v>Start</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>开场</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="str">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="str">
         <v>Trans</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>转场</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>Combat_Mon_Type</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>战斗_怪物类型</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="1" t="str">
         <v>Boss</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="1" t="str">
         <v>Boss</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="str">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="str">
         <v>Elite</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="1" t="str">
         <v>精英怪</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="str">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="str">
         <v>Medium</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="1" t="str">
         <v>中型怪</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="str">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="str">
         <v>Small</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="1" t="str">
         <v>小型怪</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="2" t="str">
         <v>Gameplay_State</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="2" t="str">
         <v>游戏内_状态</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <v>Combat</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <v>战斗</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="str">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="str">
         <v>Explore</v>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <v>探索</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="1" t="str">
         <v>Process_State</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="1" t="str">
         <v>流程_状态</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="1" t="str">
         <v>Story</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="1" t="str">
         <v>剧情（过场动画）</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="str">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="str">
         <v>Loading</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="1" t="str">
         <v>加载</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="str" xml:space="preserve">
+      <c r="H16" s="4" t="str" xml:space="preserve">
         <v> </v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="str">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="str">
         <v>Enter_Map</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="1" t="str">
         <v>进入地图</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="str">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="str">
         <v>Tutorial</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="1" t="str">
         <v>新手关</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="str">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="str">
         <v>System</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="1" t="str">
         <v>系统</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="str">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="str">
         <v>Login</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="1" t="str">
         <v>登录</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="str">
+      <c r="A21" s="2" t="str">
         <v>Map_Type</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="2" t="str">
         <v>地图_类型</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="2" t="str">
         <v>A01</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D21" s="2" t="str">
         <v>上城区</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="str">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="str">
         <v>A02</v>
       </c>
-      <c r="D22" s="1" t="str">
+      <c r="D22" s="2" t="str">
         <v>灰姑娘boss战</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="str">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="str">
         <v>A03</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="D23" s="2" t="str">
         <v>深渊副本</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="str">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="str">
         <v>A04</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D24" s="2" t="str">
         <v>思维空间</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="1" t="str">
         <v>Story_Type</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="1" t="str">
         <v>剧情_类型</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="1" t="str">
         <v>Story_01</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="1" t="str">
         <v>约见警长</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="str">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="str">
         <v>Story_02</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="1" t="str">
         <v>狼人突袭</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="str">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="str">
         <v>Story_03</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="1" t="str">
         <v>解决</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>1</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="str">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="str">
         <v>Story_04</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="1" t="str">
         <v>探索</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="str">
+      <c r="A29" s="2" t="str">
         <v>Battle_Type</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" s="2" t="str">
         <v>战斗_状态</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="2" t="str">
         <v>Pre</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D29" s="2" t="str">
         <v>入战前</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="4" t="str">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5" t="str">
         <v>Enter</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D30" s="2" t="str">
         <v>战斗中</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="str">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="str">
         <v>Exit</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D31" s="2" t="str">
         <v>出战前</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="str">
+      <c r="A32" s="1" t="str">
         <v>System_Type</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="1" t="str">
         <v>系统_状态</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="1" t="str">
         <v>Show</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="1" t="str">
         <v>角色展示界面</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="str">
+      <c r="A33" s="2" t="str">
         <v>Weather_Type</v>
       </c>
-      <c r="B33" s="1" t="str">
+      <c r="B33" s="2" t="str">
         <v>天气_状态</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C33" s="2" t="str">
         <v>Sunny</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D33" s="2" t="str">
         <v>晴天</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="str">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="str">
         <v>Rain</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D34" s="2" t="str">
         <v>雨天</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="str">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="str">
         <v>AfterRain</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D35" s="2" t="str">
         <v>雨后</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="str">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="str">
         <v>Fog</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D36" s="2" t="str">
         <v>雾天</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="str">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="str">
         <v>None</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" s="2" t="str">
         <v>无</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="str">
+      <c r="A38" s="1" t="str">
         <v>Time_Type</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="1" t="str">
         <v>时间_状态</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="1" t="str">
         <v>Dawn</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="1" t="str">
         <v>清晨</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="str">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="str">
         <v>Noon</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="1" t="str">
         <v>正午</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="str">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="str">
         <v>Dusk</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="1" t="str">
         <v>黄昏/傍晚</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="str">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="str">
         <v>Evening</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D41" s="1" t="str">
         <v>晚霞</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="str">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="str">
         <v>Night</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D42" s="1" t="str">
         <v>夜晚</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="str">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="str">
         <v>MidNight</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D43" s="1" t="str">
         <v>深夜</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="str">
+      <c r="A44" s="2" t="str">
         <v>Region_Type</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="2" t="str">
         <v>区域_类型</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="2" t="str">
         <v>Area1</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D44" s="2" t="str">
         <v>区域1</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="str">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="str">
         <v>Area2</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D45" s="2" t="str">
         <v>区域2</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="str">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="str">
         <v>Area3</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="D46" s="2" t="str">
         <v>区域3</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="2"/>
     </row>
     <row customHeight="true" ht="19" r="47">
-      <c r="A47" s="2" t="str">
+      <c r="A47" s="1" t="str">
         <v>Door_Type</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="1" t="str">
         <v>环境_类型</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="1" t="str">
         <v>Indoor</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="1" t="str">
         <v>室内</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1"/>
     </row>
     <row customHeight="true" ht="19" r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="str">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="str">
         <v>Outdoor</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" s="1" t="str">
         <v>室外</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="str">
+      <c r="A49" s="2" t="str">
         <v>Plot_Type</v>
       </c>
-      <c r="B49" s="1" t="str">
+      <c r="B49" s="2" t="str">
         <v>故事_类型</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C49" s="2" t="str">
         <v>PG01</v>
       </c>
-      <c r="D49" s="1" t="str">
+      <c r="D49" s="2" t="str">
         <v>剧情通用01</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="str">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="str">
         <v>PG02</v>
       </c>
-      <c r="D50" s="1" t="str">
+      <c r="D50" s="2" t="str">
         <v>剧情通用02</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="str">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="str">
         <v>PG03</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D51" s="2" t="str">
         <v>剧情通用03</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="str">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="str">
         <v>PD01</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D52" s="2" t="str">
         <v>特定剧情01</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="str">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="str">
         <v>PD02</v>
       </c>
-      <c r="D53" s="1" t="str">
+      <c r="D53" s="2" t="str">
         <v>特定剧情02</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="str">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="str">
         <v>PD03</v>
       </c>
-      <c r="D54" s="1" t="str">
+      <c r="D54" s="2" t="str">
         <v>特定剧情03</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1230,23 +1230,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="3" t="str">
         <v>Group名称</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>Group描述</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="3" t="str">
         <v>值</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="3" t="str">
         <v>值描述</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="3" t="str">
         <v>是否创建Bank</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>Test_Mon_Type</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>测试素材</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>Boss1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>Boss</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="str">
+        <v>Elite1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>精英怪</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="str">
+        <v>Medium1</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>中型怪</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="str">
+        <v>Small1</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>小型怪</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <picture r:id="rId1"/>
 </worksheet>
 </file>